--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_10_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2216016.620263924</v>
+        <v>-2216729.224737966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147699</v>
+        <v>169821.42841477</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058539</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176721</v>
+        <v>4.29370728720566</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494462</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718773</v>
+        <v>16.53078872718761</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.17968824550861</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13476116065497</v>
       </c>
       <c r="U11" t="n">
-        <v>9.986511662427972</v>
+        <v>71.82086528673094</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810728</v>
+        <v>9.188502199810614</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>99.87071013728723</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668484</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851671</v>
+        <v>13.25780256851659</v>
       </c>
       <c r="T12" t="n">
-        <v>36.6405496213481</v>
+        <v>36.64054962134799</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437498</v>
+        <v>58.89840834437486</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084694</v>
       </c>
       <c r="W12" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245628</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491541</v>
+        <v>38.9832651149153</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.26923784767074</v>
+        <v>45.05463680947031</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650166</v>
+        <v>25.09353465650155</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412735</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605251</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989471</v>
+        <v>66.7793658598946</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9810577647801</v>
+        <v>111.98105776478</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368722</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961311</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
-        <v>7.337018666059862</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494462</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384201</v>
+        <v>62.66716559384196</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.53078872718767</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065507</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673105</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>123.4483853802164</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810728</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>37.73210631684542</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668484</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>188.5623770505816</v>
+        <v>98.4323514976618</v>
       </c>
       <c r="T15" t="n">
-        <v>36.6405496213481</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437498</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W15" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491541</v>
+        <v>38.98326511491535</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947042</v>
+        <v>45.05463680947037</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650166</v>
+        <v>25.0935346565016</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412741</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="17">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668484</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>19.0741852391399</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="X18" t="n">
-        <v>102.0703713693872</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,20 +2202,20 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668484</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="T21" t="n">
-        <v>41.6293025195714</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>123.9446300954777</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2400,25 +2400,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>94.20569216482451</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668484</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
-        <v>75.28763531479636</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E26" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
         <v>205.3708602775721</v>
@@ -2573,7 +2573,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203122</v>
+        <v>14.04236090203119</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177551</v>
+        <v>8.997433817177523</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325353</v>
+        <v>36.6835379432535</v>
       </c>
       <c r="V26" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X26" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="27">
@@ -2634,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>111.8995022122419</v>
+        <v>53.53554025208192</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870577</v>
+        <v>1.503222277870548</v>
       </c>
       <c r="U27" t="n">
-        <v>23.76108100089746</v>
+        <v>23.76108100089743</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736953</v>
+        <v>27.1819442473695</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897888</v>
+        <v>53.23760690897885</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771437889</v>
+        <v>3.84593777143786</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992901</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064995</v>
+        <v>21.96844096064992</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257511</v>
+        <v>10.29393777257508</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913228</v>
+        <v>75.18957207913225</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641719</v>
+        <v>31.64203851641716</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130261</v>
+        <v>76.84373042130258</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209813</v>
+        <v>8.452478740209784</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135703</v>
+        <v>3.674296146135674</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D29" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E29" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H29" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203121</v>
+        <v>14.04236090203115</v>
       </c>
       <c r="T29" t="n">
-        <v>8.99743381717756</v>
+        <v>8.997433817177503</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325353</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V29" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X29" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>81.28952348895643</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>44.66014819699252</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668484</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870577</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U30" t="n">
-        <v>23.76108100089746</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736953</v>
+        <v>27.18194424736947</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897888</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X30" t="n">
-        <v>3.845937771437889</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992901</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064995</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257511</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913228</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641719</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130261</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209813</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135703</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203121</v>
+        <v>14.04236090203122</v>
       </c>
       <c r="T32" t="n">
-        <v>8.99743381717756</v>
+        <v>8.997433817177551</v>
       </c>
       <c r="U32" t="n">
         <v>36.68353794325353</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>140.5942146166795</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870577</v>
+        <v>1.503222277870576</v>
       </c>
       <c r="U33" t="n">
         <v>23.76108100089746</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736953</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>53.23760690897888</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437889</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992901</v>
+        <v>36.65040238524784</v>
       </c>
     </row>
     <row r="34">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0275635329761</v>
+        <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632159</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279737006</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677893</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951563</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7781601007476</v>
+        <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914413</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429479</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090966</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X35" t="n">
-        <v>87.7230374498489</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2258905735927</v>
+        <v>110.2258905735926</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>133.5309812391652</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668484</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>101.3103407389752</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59687190230776</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.2510302444781</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0275635329761</v>
+        <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632159</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279737006</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677893</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951563</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7781601007476</v>
+        <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914413</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429479</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090966</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X38" t="n">
-        <v>87.7230374498489</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2258905735927</v>
+        <v>110.2258905735926</v>
       </c>
     </row>
     <row r="39">
@@ -3582,16 +3582,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>47.74960300645485</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668484</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>134.7596628479386</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230776</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.2510302444781</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.96888962557789</v>
+        <v>151.5804012706967</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668484</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.153699692889035</v>
+        <v>9.153699692889042</v>
       </c>
       <c r="V44" t="n">
         <v>79.88296869075481</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>5.283080164189197</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>68.51852083663483</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>536.9973087677836</v>
+        <v>570.7483936365869</v>
       </c>
       <c r="C11" t="n">
-        <v>536.9973087677836</v>
+        <v>570.7483936365869</v>
       </c>
       <c r="D11" t="n">
-        <v>375.9442680428625</v>
+        <v>566.4113155687024</v>
       </c>
       <c r="E11" t="n">
-        <v>375.9442680428625</v>
+        <v>566.4113155687024</v>
       </c>
       <c r="F11" t="n">
-        <v>185.4772205170225</v>
+        <v>375.9442680428624</v>
       </c>
       <c r="G11" t="n">
-        <v>185.4772205170225</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="H11" t="n">
         <v>15.08499016404653</v>
@@ -5039,52 +5039,52 @@
         <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567086</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K11" t="n">
-        <v>115.6457740567086</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L11" t="n">
-        <v>162.4191122870027</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="M11" t="n">
-        <v>243.3394230101545</v>
+        <v>388.4384967241982</v>
       </c>
       <c r="N11" t="n">
-        <v>318.7266729433926</v>
+        <v>463.8257466574363</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602036</v>
+        <v>650.5024999375121</v>
       </c>
       <c r="P11" t="n">
         <v>666.4818518381376</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112277</v>
+        <v>737.5517418112279</v>
       </c>
       <c r="S11" t="n">
-        <v>737.5517418112277</v>
+        <v>687.8752890379868</v>
       </c>
       <c r="T11" t="n">
-        <v>737.5517418112277</v>
+        <v>643.2947222090424</v>
       </c>
       <c r="U11" t="n">
-        <v>727.4643562936236</v>
+        <v>570.7483936365869</v>
       </c>
       <c r="V11" t="n">
-        <v>727.4643562936236</v>
+        <v>570.7483936365869</v>
       </c>
       <c r="W11" t="n">
-        <v>727.4643562936236</v>
+        <v>570.7483936365869</v>
       </c>
       <c r="X11" t="n">
-        <v>727.4643562936236</v>
+        <v>570.7483936365869</v>
       </c>
       <c r="Y11" t="n">
-        <v>536.9973087677836</v>
+        <v>570.7483936365869</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>250.9175746960314</v>
+        <v>407.2506513316918</v>
       </c>
       <c r="C12" t="n">
-        <v>241.6362593426873</v>
+        <v>397.9693359783478</v>
       </c>
       <c r="D12" t="n">
-        <v>241.6362593426873</v>
+        <v>397.9693359783478</v>
       </c>
       <c r="E12" t="n">
-        <v>68.07305546410171</v>
+        <v>224.4061320997622</v>
       </c>
       <c r="F12" t="n">
-        <v>68.07305546410171</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="G12" t="n">
-        <v>68.07305546410171</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="H12" t="n">
-        <v>68.07305546410171</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635122</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681695</v>
@@ -5133,37 +5133,37 @@
         <v>538.8471199287435</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023264</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905401</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R12" t="n">
-        <v>611.2645134234349</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S12" t="n">
-        <v>597.8727936572564</v>
+        <v>740.8577884361481</v>
       </c>
       <c r="T12" t="n">
-        <v>560.8621374740765</v>
+        <v>703.8471322529683</v>
       </c>
       <c r="U12" t="n">
-        <v>501.3687957120815</v>
+        <v>644.3537904909736</v>
       </c>
       <c r="V12" t="n">
-        <v>438.4200365294078</v>
+        <v>581.4050313082998</v>
       </c>
       <c r="W12" t="n">
-        <v>349.1524261733912</v>
+        <v>492.1374209522834</v>
       </c>
       <c r="X12" t="n">
-        <v>309.7753907037796</v>
+        <v>452.7603854826719</v>
       </c>
       <c r="Y12" t="n">
-        <v>250.9175746960314</v>
+        <v>407.2506513316918</v>
       </c>
     </row>
     <row r="13">
@@ -5182,64 +5182,64 @@
         <v>15.08499016404653</v>
       </c>
       <c r="E13" t="n">
-        <v>15.08499016404653</v>
+        <v>51.37196319525354</v>
       </c>
       <c r="F13" t="n">
-        <v>15.08499016404653</v>
+        <v>51.37196319525354</v>
       </c>
       <c r="G13" t="n">
-        <v>15.08499016404653</v>
+        <v>51.37196319525354</v>
       </c>
       <c r="H13" t="n">
-        <v>15.08499016404653</v>
+        <v>63.75348903586134</v>
       </c>
       <c r="I13" t="n">
-        <v>15.08499016404653</v>
+        <v>63.75348903586134</v>
       </c>
       <c r="J13" t="n">
-        <v>15.08499016404653</v>
+        <v>63.75348903586134</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2889991250442</v>
+        <v>173.9574979968592</v>
       </c>
       <c r="L13" t="n">
-        <v>261.1119839323512</v>
+        <v>173.9574979968592</v>
       </c>
       <c r="M13" t="n">
-        <v>261.1119839323512</v>
+        <v>308.4176569022806</v>
       </c>
       <c r="N13" t="n">
-        <v>261.1119839323512</v>
+        <v>468.6318884260452</v>
       </c>
       <c r="O13" t="n">
-        <v>400.5753329514389</v>
+        <v>468.6318884260452</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612859</v>
+        <v>468.6318884260452</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612859</v>
+        <v>519.245920161285</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577488</v>
+        <v>493.898915457748</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111548</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272634</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791732</v>
+        <v>278.8848418791728</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701883</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980445</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456494</v>
+        <v>54.28865025456483</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404653</v>
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>637.1226128009264</v>
+        <v>612.8564030433326</v>
       </c>
       <c r="C14" t="n">
-        <v>637.1226128009264</v>
+        <v>439.2444353093695</v>
       </c>
       <c r="D14" t="n">
-        <v>629.7114828352094</v>
+        <v>439.2444353093695</v>
       </c>
       <c r="E14" t="n">
-        <v>439.2444353093694</v>
+        <v>439.2444353093695</v>
       </c>
       <c r="F14" t="n">
-        <v>439.2444353093694</v>
+        <v>248.7773877835294</v>
       </c>
       <c r="G14" t="n">
-        <v>248.7773877835293</v>
+        <v>248.7773877835294</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055362</v>
+        <v>78.38515743055356</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567086</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K14" t="n">
-        <v>115.6457740567086</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L14" t="n">
-        <v>162.4191122870027</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="M14" t="n">
-        <v>243.3394230101545</v>
+        <v>282.6820541672741</v>
       </c>
       <c r="N14" t="n">
-        <v>318.7266729433926</v>
+        <v>358.0693041005123</v>
       </c>
       <c r="O14" t="n">
         <v>504.8287151602036</v>
@@ -5300,28 +5300,28 @@
         <v>754.2495082023265</v>
       </c>
       <c r="R14" t="n">
-        <v>754.2495082023265</v>
+        <v>737.5517418112279</v>
       </c>
       <c r="S14" t="n">
-        <v>754.2495082023265</v>
+        <v>737.5517418112279</v>
       </c>
       <c r="T14" t="n">
-        <v>709.668941373382</v>
+        <v>737.5517418112279</v>
       </c>
       <c r="U14" t="n">
-        <v>637.1226128009264</v>
+        <v>737.5517418112279</v>
       </c>
       <c r="V14" t="n">
-        <v>637.1226128009264</v>
+        <v>737.5517418112279</v>
       </c>
       <c r="W14" t="n">
-        <v>637.1226128009264</v>
+        <v>737.5517418112279</v>
       </c>
       <c r="X14" t="n">
-        <v>637.1226128009264</v>
+        <v>612.8564030433326</v>
       </c>
       <c r="Y14" t="n">
-        <v>637.1226128009264</v>
+        <v>612.8564030433326</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>223.2596604602432</v>
+        <v>185.1464217563589</v>
       </c>
       <c r="C15" t="n">
-        <v>213.978345106899</v>
+        <v>175.8651064030148</v>
       </c>
       <c r="D15" t="n">
-        <v>53.19822886793079</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E15" t="n">
-        <v>53.19822886793079</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F15" t="n">
-        <v>53.19822886793079</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G15" t="n">
-        <v>53.19822886793079</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H15" t="n">
-        <v>53.19822886793079</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I15" t="n">
-        <v>53.19822886793079</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J15" t="n">
         <v>15.08499016404653</v>
@@ -5376,31 +5376,31 @@
         <v>754.2495082023265</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R15" t="n">
-        <v>747.3338450905402</v>
+        <v>618.1801765352213</v>
       </c>
       <c r="S15" t="n">
-        <v>556.8667975647002</v>
+        <v>518.7535588608155</v>
       </c>
       <c r="T15" t="n">
-        <v>519.8561413815203</v>
+        <v>481.7429026776356</v>
       </c>
       <c r="U15" t="n">
-        <v>460.3627996195253</v>
+        <v>422.2495609156408</v>
       </c>
       <c r="V15" t="n">
-        <v>397.4140404368516</v>
+        <v>359.300801732967</v>
       </c>
       <c r="W15" t="n">
-        <v>308.146430080835</v>
+        <v>270.0331913769505</v>
       </c>
       <c r="X15" t="n">
-        <v>268.7693946112234</v>
+        <v>230.6561559073391</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.2596604602432</v>
+        <v>185.1464217563589</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.08499016404653</v>
       </c>
       <c r="D16" t="n">
-        <v>47.90051924715257</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E16" t="n">
-        <v>84.18749227835946</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F16" t="n">
-        <v>123.1962317134069</v>
+        <v>54.09372959909404</v>
       </c>
       <c r="G16" t="n">
-        <v>123.1962317134069</v>
+        <v>54.09372959909404</v>
       </c>
       <c r="H16" t="n">
-        <v>123.1962317134069</v>
+        <v>66.47525543970178</v>
       </c>
       <c r="I16" t="n">
-        <v>123.1962317134069</v>
+        <v>66.47525543970178</v>
       </c>
       <c r="J16" t="n">
-        <v>180.7159227800185</v>
+        <v>123.9949465063135</v>
       </c>
       <c r="K16" t="n">
-        <v>290.9199317410162</v>
+        <v>234.1989554673112</v>
       </c>
       <c r="L16" t="n">
-        <v>435.6581711962742</v>
+        <v>234.1989554673112</v>
       </c>
       <c r="M16" t="n">
-        <v>435.6581711962742</v>
+        <v>385.8040022195117</v>
       </c>
       <c r="N16" t="n">
-        <v>435.6581711962742</v>
+        <v>385.8040022195117</v>
       </c>
       <c r="O16" t="n">
-        <v>435.6581711962742</v>
+        <v>400.5753329514384</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260462</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791732</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456494</v>
+        <v>54.28865025456489</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340413</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844275</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438557</v>
+        <v>369.4643728438554</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372142</v>
+        <v>294.662029137214</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019086</v>
       </c>
       <c r="G17" t="n">
         <v>65.179298832673</v>
@@ -5510,40 +5510,40 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>15.08499016404653</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="J17" t="n">
-        <v>201.7617434441223</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="K17" t="n">
-        <v>201.7617434441223</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="L17" t="n">
-        <v>248.5350816744164</v>
+        <v>117.7218274992679</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4553923975682</v>
+        <v>198.6421382224197</v>
       </c>
       <c r="N17" t="n">
-        <v>404.8426423308064</v>
+        <v>311.6798999623977</v>
       </c>
       <c r="O17" t="n">
-        <v>439.119325964236</v>
+        <v>498.3566532424735</v>
       </c>
       <c r="P17" t="n">
-        <v>439.119325964236</v>
+        <v>498.3566532424735</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4829784168847</v>
+        <v>685.0334065225493</v>
       </c>
       <c r="R17" t="n">
-        <v>564.0214906197998</v>
+        <v>685.0334065225493</v>
       </c>
       <c r="S17" t="n">
-        <v>633.237592299577</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933594</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="U17" t="n">
         <v>754.2495082023265</v>
@@ -5555,10 +5555,10 @@
         <v>689.6767164338451</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059211</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075486</v>
+        <v>540.9705567075483</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>453.765412343097</v>
+        <v>175.5127064468024</v>
       </c>
       <c r="C18" t="n">
-        <v>453.765412343097</v>
+        <v>175.5127064468024</v>
       </c>
       <c r="D18" t="n">
-        <v>453.765412343097</v>
+        <v>175.5127064468024</v>
       </c>
       <c r="E18" t="n">
-        <v>453.765412343097</v>
+        <v>175.5127064468024</v>
       </c>
       <c r="F18" t="n">
-        <v>453.765412343097</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G18" t="n">
-        <v>303.5185187171792</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I18" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635138</v>
+        <v>53.07705719635123</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681697</v>
+        <v>170.4486221681696</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486678</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287436</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O18" t="n">
         <v>670.5904072110305</v>
@@ -5613,31 +5613,31 @@
         <v>754.2495082023265</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R18" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S18" t="n">
-        <v>556.8667975647002</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T18" t="n">
-        <v>556.8667975647002</v>
+        <v>563.7824606764865</v>
       </c>
       <c r="U18" t="n">
-        <v>556.8667975647002</v>
+        <v>563.7824606764865</v>
       </c>
       <c r="V18" t="n">
-        <v>556.8667975647002</v>
+        <v>544.5156068995775</v>
       </c>
       <c r="W18" t="n">
-        <v>556.8667975647002</v>
+        <v>354.0485593737375</v>
       </c>
       <c r="X18" t="n">
-        <v>453.765412343097</v>
+        <v>354.0485593737375</v>
       </c>
       <c r="Y18" t="n">
-        <v>453.765412343097</v>
+        <v>354.0485593737375</v>
       </c>
     </row>
     <row r="19">
@@ -5750,37 +5750,37 @@
         <v>15.08499016404653</v>
       </c>
       <c r="J20" t="n">
-        <v>201.7617434441223</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K20" t="n">
         <v>201.7617434441223</v>
       </c>
       <c r="L20" t="n">
-        <v>248.5350816744164</v>
+        <v>275.4499984295161</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4553923975682</v>
+        <v>356.3703091526679</v>
       </c>
       <c r="N20" t="n">
-        <v>404.8426423308064</v>
+        <v>431.7575590859061</v>
       </c>
       <c r="O20" t="n">
-        <v>439.119325964236</v>
+        <v>466.0342427193357</v>
       </c>
       <c r="P20" t="n">
-        <v>439.119325964236</v>
+        <v>466.0342427193357</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4829784168847</v>
+        <v>652.7109959994115</v>
       </c>
       <c r="R20" t="n">
-        <v>564.0214906197998</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S20" t="n">
-        <v>633.237592299577</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933594</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="U20" t="n">
         <v>754.2495082023265</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>378.7476653727754</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="C21" t="n">
-        <v>378.7476653727754</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="D21" t="n">
-        <v>378.7476653727754</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="E21" t="n">
-        <v>378.7476653727754</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="F21" t="n">
-        <v>218.3199490900195</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="G21" t="n">
-        <v>68.07305546410171</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H21" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I21" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635122</v>
       </c>
       <c r="L21" t="n">
         <v>170.4486221681695</v>
@@ -5850,31 +5850,31 @@
         <v>754.2495082023265</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R21" t="n">
-        <v>611.264513423435</v>
+        <v>618.1801765352213</v>
       </c>
       <c r="S21" t="n">
-        <v>420.797465897595</v>
+        <v>618.1801765352213</v>
       </c>
       <c r="T21" t="n">
-        <v>378.7476653727754</v>
+        <v>618.1801765352213</v>
       </c>
       <c r="U21" t="n">
-        <v>378.7476653727754</v>
+        <v>427.7131290093813</v>
       </c>
       <c r="V21" t="n">
-        <v>378.7476653727754</v>
+        <v>427.7131290093813</v>
       </c>
       <c r="W21" t="n">
-        <v>378.7476653727754</v>
+        <v>427.7131290093813</v>
       </c>
       <c r="X21" t="n">
-        <v>378.7476653727754</v>
+        <v>302.5165329533432</v>
       </c>
       <c r="Y21" t="n">
-        <v>378.7476653727754</v>
+        <v>302.5165329533432</v>
       </c>
     </row>
     <row r="22">
@@ -5984,40 +5984,40 @@
         <v>15.08499016404654</v>
       </c>
       <c r="I23" t="n">
-        <v>15.08499016404654</v>
+        <v>70.94848926897386</v>
       </c>
       <c r="J23" t="n">
-        <v>201.7617434441224</v>
+        <v>70.94848926897386</v>
       </c>
       <c r="K23" t="n">
-        <v>228.6766601992222</v>
+        <v>70.94848926897386</v>
       </c>
       <c r="L23" t="n">
-        <v>275.4499984295162</v>
+        <v>117.7218274992679</v>
       </c>
       <c r="M23" t="n">
-        <v>356.370309152668</v>
+        <v>304.3985807793438</v>
       </c>
       <c r="N23" t="n">
-        <v>431.7575590859062</v>
+        <v>379.785830712582</v>
       </c>
       <c r="O23" t="n">
-        <v>466.0342427193358</v>
+        <v>566.4625839926579</v>
       </c>
       <c r="P23" t="n">
-        <v>466.0342427193358</v>
+        <v>633.2375922995773</v>
       </c>
       <c r="Q23" t="n">
-        <v>652.7109959994117</v>
+        <v>633.2375922995773</v>
       </c>
       <c r="R23" t="n">
-        <v>754.2495082023268</v>
+        <v>633.2375922995773</v>
       </c>
       <c r="S23" t="n">
-        <v>754.2495082023268</v>
+        <v>633.2375922995773</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023268</v>
+        <v>707.4481717933596</v>
       </c>
       <c r="U23" t="n">
         <v>754.2495082023268</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>671.2857286109481</v>
+        <v>237.2460814835414</v>
       </c>
       <c r="C24" t="n">
-        <v>671.2857286109481</v>
+        <v>237.2460814835414</v>
       </c>
       <c r="D24" t="n">
-        <v>510.5056123719799</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="E24" t="n">
-        <v>336.9424084933943</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="F24" t="n">
-        <v>176.5146922106384</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="G24" t="n">
-        <v>176.5146922106384</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H24" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410173</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J24" t="n">
         <v>15.08499016404654</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635122</v>
+        <v>53.07705719635145</v>
       </c>
       <c r="L24" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681698</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486679</v>
       </c>
       <c r="N24" t="n">
         <v>538.8471199287438</v>
@@ -6087,31 +6087,31 @@
         <v>754.2495082023268</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.3338450905404</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="R24" t="n">
-        <v>747.3338450905404</v>
+        <v>618.1801765352216</v>
       </c>
       <c r="S24" t="n">
-        <v>671.2857286109481</v>
+        <v>618.1801765352216</v>
       </c>
       <c r="T24" t="n">
-        <v>671.2857286109481</v>
+        <v>427.7131290093815</v>
       </c>
       <c r="U24" t="n">
-        <v>671.2857286109481</v>
+        <v>427.7131290093815</v>
       </c>
       <c r="V24" t="n">
-        <v>671.2857286109481</v>
+        <v>427.7131290093815</v>
       </c>
       <c r="W24" t="n">
-        <v>671.2857286109481</v>
+        <v>237.2460814835414</v>
       </c>
       <c r="X24" t="n">
-        <v>671.2857286109481</v>
+        <v>237.2460814835414</v>
       </c>
       <c r="Y24" t="n">
-        <v>671.2857286109481</v>
+        <v>237.2460814835414</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792737</v>
+        <v>882.8924400792729</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962481</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471537</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693961</v>
+        <v>406.0748730693953</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577068</v>
+        <v>198.6295596577063</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662744</v>
+        <v>63.72957914662689</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J26" t="n">
         <v>171.2683996847217</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L26" t="n">
-        <v>634.08874669463</v>
+        <v>634.0887466946303</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191342</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6242,7 +6242,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.662612870715</v>
@@ -6257,19 +6257,19 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>672.7070563209927</v>
+        <v>263.5611688855336</v>
       </c>
       <c r="C27" t="n">
-        <v>483.2947820539564</v>
+        <v>263.5611688855336</v>
       </c>
       <c r="D27" t="n">
-        <v>322.5146658149881</v>
+        <v>263.5611688855336</v>
       </c>
       <c r="E27" t="n">
-        <v>148.9514619364026</v>
+        <v>89.99796500694808</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K27" t="n">
-        <v>73.91372875432153</v>
+        <v>73.91372875432154</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261399</v>
@@ -6330,25 +6330,25 @@
         <v>793.3606943740707</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740707</v>
+        <v>599.8380156942001</v>
       </c>
       <c r="T27" t="n">
-        <v>791.8422880327873</v>
+        <v>598.3196093529167</v>
       </c>
       <c r="U27" t="n">
-        <v>767.8411961126889</v>
+        <v>574.3185174328183</v>
       </c>
       <c r="V27" t="n">
-        <v>740.3846867719116</v>
+        <v>546.862008092041</v>
       </c>
       <c r="W27" t="n">
-        <v>686.6093262577915</v>
+        <v>493.086647577921</v>
       </c>
       <c r="X27" t="n">
-        <v>682.7245406300765</v>
+        <v>489.201861950206</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.7070563209927</v>
+        <v>263.5611688855336</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505085</v>
       </c>
       <c r="C28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505085</v>
       </c>
       <c r="D28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505085</v>
       </c>
       <c r="E28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505085</v>
       </c>
       <c r="F28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505085</v>
       </c>
       <c r="G28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505085</v>
       </c>
       <c r="H28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505085</v>
       </c>
       <c r="I28" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505085</v>
       </c>
       <c r="J28" t="n">
-        <v>35.92166172201684</v>
+        <v>79.89883730020043</v>
       </c>
       <c r="K28" t="n">
-        <v>180.9116247530573</v>
+        <v>79.89883730020043</v>
       </c>
       <c r="L28" t="n">
-        <v>266.2898381224438</v>
+        <v>79.89883730020043</v>
       </c>
       <c r="M28" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="N28" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="O28" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="P28" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177468</v>
+        <v>244.0994937177467</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757518</v>
+        <v>233.7015767757517</v>
       </c>
       <c r="U28" t="n">
         <v>157.7525140695575</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024695</v>
+        <v>125.7908590024694</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398201</v>
+        <v>48.17092928398196</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063877</v>
+        <v>39.63307197063875</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201684</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971341</v>
       </c>
       <c r="C29" t="n">
-        <v>882.892440079273</v>
+        <v>882.8924400792747</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962481</v>
+        <v>757.3316491962499</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471537</v>
+        <v>597.7236336471556</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693954</v>
+        <v>406.0748730693972</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577064</v>
+        <v>198.6295596577082</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662697</v>
+        <v>63.72957914662739</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847209</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629828</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946292</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191334</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153724</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.662612870714</v>
+        <v>1777.662612870716</v>
       </c>
       <c r="R29" t="n">
-        <v>1796.083086100841</v>
+        <v>1796.083086100843</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169496</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.810566182448</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451891</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662882</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998504</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628127</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>665.7913932092064</v>
+        <v>241.4606388098157</v>
       </c>
       <c r="C30" t="n">
-        <v>583.6807634223817</v>
+        <v>241.4606388098157</v>
       </c>
       <c r="D30" t="n">
-        <v>422.9006471834135</v>
+        <v>241.4606388098157</v>
       </c>
       <c r="E30" t="n">
-        <v>249.3374433048279</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F30" t="n">
-        <v>88.90972702207202</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G30" t="n">
-        <v>88.90972702207202</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H30" t="n">
-        <v>88.90972702207202</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I30" t="n">
-        <v>88.90972702207202</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432151</v>
+        <v>73.91372875432154</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2852937261398</v>
+        <v>191.2852937261399</v>
       </c>
       <c r="M30" t="n">
         <v>373.007038206638</v>
@@ -6561,31 +6561,31 @@
         <v>793.3606943740707</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622844</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="R30" t="n">
-        <v>786.4450312622844</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="S30" t="n">
-        <v>786.4450312622844</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="T30" t="n">
-        <v>784.926624921001</v>
+        <v>791.8422880327873</v>
       </c>
       <c r="U30" t="n">
-        <v>760.9255330009025</v>
+        <v>552.2179873571002</v>
       </c>
       <c r="V30" t="n">
-        <v>733.4690236601252</v>
+        <v>524.7614780163231</v>
       </c>
       <c r="W30" t="n">
-        <v>679.6936631460052</v>
+        <v>470.986117502203</v>
       </c>
       <c r="X30" t="n">
-        <v>675.8088775182902</v>
+        <v>251.4781231188994</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.7913932092064</v>
+        <v>241.4606388098157</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201683</v>
+        <v>109.7163552271071</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201683</v>
+        <v>109.7163552271071</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201683</v>
+        <v>109.7163552271071</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201683</v>
+        <v>109.7163552271071</v>
       </c>
       <c r="J31" t="n">
-        <v>128.2273068586712</v>
+        <v>109.7163552271071</v>
       </c>
       <c r="K31" t="n">
-        <v>128.2273068586712</v>
+        <v>109.7163552271071</v>
       </c>
       <c r="L31" t="n">
-        <v>266.2898381224438</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="M31" t="n">
-        <v>266.2898381224438</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224438</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224438</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224438</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177468</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757518</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024695</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W31" t="n">
-        <v>48.170929283982</v>
+        <v>48.17092928398191</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063875</v>
+        <v>39.63307197063872</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792737</v>
+        <v>882.8924400792735</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962489</v>
+        <v>757.3316491962486</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471545</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693962</v>
+        <v>406.0748730693958</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577072</v>
+        <v>198.6295596577069</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662746</v>
+        <v>63.72957914662745</v>
       </c>
       <c r="I32" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J32" t="n">
         <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629845</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946309</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M32" t="n">
-        <v>926.341364319135</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153726</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.669911688508</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q32" t="n">
-        <v>1777.662612870716</v>
+        <v>1777.662612870715</v>
       </c>
       <c r="R32" t="n">
         <v>1796.083086100843</v>
@@ -6731,19 +6731,19 @@
         <v>1772.81056618245</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
         <v>1627.258702662881</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998504</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
         <v>1353.778677628126</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>530.6926981223265</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C33" t="n">
-        <v>530.6926981223265</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D33" t="n">
-        <v>369.9125818833583</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E33" t="n">
-        <v>196.3493780047728</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J33" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K33" t="n">
         <v>73.91372875432154</v>
@@ -6804,25 +6804,25 @@
         <v>793.3606943740707</v>
       </c>
       <c r="S33" t="n">
-        <v>651.3463361754045</v>
+        <v>793.3606943740707</v>
       </c>
       <c r="T33" t="n">
-        <v>649.8279298341212</v>
+        <v>791.8422880327873</v>
       </c>
       <c r="U33" t="n">
-        <v>625.8268379140227</v>
+        <v>767.8411961126889</v>
       </c>
       <c r="V33" t="n">
-        <v>598.3703285732454</v>
+        <v>524.7614780163229</v>
       </c>
       <c r="W33" t="n">
-        <v>544.5949680591253</v>
+        <v>470.9861175022029</v>
       </c>
       <c r="X33" t="n">
-        <v>540.7101824314103</v>
+        <v>251.4781231188992</v>
       </c>
       <c r="Y33" t="n">
-        <v>530.6926981223265</v>
+        <v>214.4575146489519</v>
       </c>
     </row>
     <row r="34">
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="C34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="K34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="L34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="M34" t="n">
-        <v>35.92166172201686</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="N34" t="n">
-        <v>35.92166172201686</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="O34" t="n">
-        <v>35.92166172201686</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="P34" t="n">
-        <v>189.3782030019065</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="Q34" t="n">
         <v>266.2898381224438</v>
@@ -6895,13 +6895,13 @@
         <v>125.7908590024695</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398203</v>
+        <v>48.17092928398202</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063878</v>
+        <v>39.63307197063877</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.92166172201686</v>
+        <v>35.92166172201685</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837463</v>
+        <v>623.0119765837461</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248356</v>
+        <v>544.0768043248354</v>
       </c>
       <c r="D35" t="n">
-        <v>477.700559074967</v>
+        <v>477.7005590749668</v>
       </c>
       <c r="E35" t="n">
         <v>377.2770891590285</v>
@@ -6926,61 +6926,61 @@
         <v>244.8128742144263</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589371</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516574</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J35" t="n">
-        <v>244.9424160029269</v>
+        <v>214.1901826957315</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7962265328097</v>
+        <v>472.0439932256143</v>
       </c>
       <c r="L35" t="n">
-        <v>549.5695647631037</v>
+        <v>518.8173314559083</v>
       </c>
       <c r="M35" t="n">
-        <v>630.4898754862555</v>
+        <v>599.7376421790601</v>
       </c>
       <c r="N35" t="n">
-        <v>705.8771254194937</v>
+        <v>675.1248921122983</v>
       </c>
       <c r="O35" t="n">
-        <v>740.1538090529234</v>
+        <v>709.401575745728</v>
       </c>
       <c r="P35" t="n">
-        <v>740.1538090529234</v>
+        <v>963.847439668761</v>
       </c>
       <c r="Q35" t="n">
-        <v>920.7141926622113</v>
+        <v>963.847439668761</v>
       </c>
       <c r="R35" t="n">
-        <v>997.1414390673945</v>
+        <v>976.0386714052353</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.24627494944</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.833577898517</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.833577898517</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426629</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W35" t="n">
-        <v>926.018533711441</v>
+        <v>926.0185337114406</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742199</v>
+        <v>837.4094049742196</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665505</v>
+        <v>726.0701215665501</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.82473685802552</v>
+        <v>345.1287248544664</v>
       </c>
       <c r="C36" t="n">
-        <v>73.82473685802552</v>
+        <v>155.7164505874302</v>
       </c>
       <c r="D36" t="n">
-        <v>73.82473685802552</v>
+        <v>155.7164505874302</v>
       </c>
       <c r="E36" t="n">
-        <v>73.82473685802552</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F36" t="n">
-        <v>73.82473685802552</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G36" t="n">
-        <v>73.82473685802552</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H36" t="n">
-        <v>73.82473685802552</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I36" t="n">
-        <v>73.82473685802552</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
         <v>58.82873859027501</v>
@@ -7023,7 +7023,7 @@
         <v>176.2003035620933</v>
       </c>
       <c r="M36" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425915</v>
       </c>
       <c r="N36" t="n">
         <v>562.8733159364413</v>
@@ -7035,31 +7035,31 @@
         <v>778.2757042100242</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.3600410982378</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="R36" t="n">
-        <v>635.2907094311327</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="S36" t="n">
-        <v>532.9570319170163</v>
+        <v>584.7530255301535</v>
       </c>
       <c r="T36" t="n">
-        <v>532.9570319170163</v>
+        <v>584.7530255301535</v>
       </c>
       <c r="U36" t="n">
-        <v>293.3327312413292</v>
+        <v>345.1287248544664</v>
       </c>
       <c r="V36" t="n">
-        <v>293.3327312413292</v>
+        <v>345.1287248544664</v>
       </c>
       <c r="W36" t="n">
-        <v>293.3327312413292</v>
+        <v>345.1287248544664</v>
       </c>
       <c r="X36" t="n">
-        <v>73.82473685802552</v>
+        <v>345.1287248544664</v>
       </c>
       <c r="Y36" t="n">
-        <v>73.82473685802552</v>
+        <v>345.1287248544664</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633989</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633989</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633989</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633989</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633989</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633989</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633989</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633989</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633989</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633989</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633989</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330175</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330175</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>623.0119765837464</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248357</v>
+        <v>544.0768043248358</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749669</v>
+        <v>477.7005590749671</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590286</v>
+        <v>377.2770891590288</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144263</v>
+        <v>244.8128742144265</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589371</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516574</v>
+        <v>51.58890486516579</v>
       </c>
       <c r="J38" t="n">
-        <v>244.9424160029269</v>
+        <v>244.942416002927</v>
       </c>
       <c r="K38" t="n">
-        <v>244.9424160029269</v>
+        <v>502.7962265328097</v>
       </c>
       <c r="L38" t="n">
-        <v>291.7157542332209</v>
+        <v>549.5695647631037</v>
       </c>
       <c r="M38" t="n">
-        <v>372.6360649563727</v>
+        <v>630.4898754862555</v>
       </c>
       <c r="N38" t="n">
-        <v>448.0233148896109</v>
+        <v>888.3436860161382</v>
       </c>
       <c r="O38" t="n">
-        <v>669.9517276947142</v>
+        <v>965.4063314933328</v>
       </c>
       <c r="P38" t="n">
-        <v>669.9517276947142</v>
+        <v>965.4063314933328</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5121113040021</v>
+        <v>965.4063314933328</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9393577091853</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912306</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.143507287281</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426629</v>
+        <v>992.5203387426627</v>
       </c>
       <c r="W38" t="n">
-        <v>926.018533711441</v>
+        <v>926.0185337114409</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742199</v>
+        <v>837.4094049742198</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665506</v>
+        <v>726.0701215665505</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>592.8241881713027</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C39" t="n">
-        <v>403.4119139042664</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D39" t="n">
-        <v>242.6317976652981</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E39" t="n">
-        <v>69.0685937867126</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
         <v>58.82873859027501</v>
@@ -7260,7 +7260,7 @@
         <v>176.2003035620933</v>
       </c>
       <c r="M39" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425915</v>
       </c>
       <c r="N39" t="n">
         <v>562.8733159364413</v>
@@ -7272,31 +7272,31 @@
         <v>778.2757042100242</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.3600410982378</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="R39" t="n">
-        <v>771.3600410982378</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="S39" t="n">
-        <v>771.3600410982378</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="T39" t="n">
-        <v>771.3600410982378</v>
+        <v>561.1340891131522</v>
       </c>
       <c r="U39" t="n">
-        <v>771.3600410982378</v>
+        <v>561.1340891131522</v>
       </c>
       <c r="V39" t="n">
-        <v>771.3600410982378</v>
+        <v>425.0132175495778</v>
       </c>
       <c r="W39" t="n">
-        <v>771.3600410982378</v>
+        <v>425.0132175495778</v>
       </c>
       <c r="X39" t="n">
-        <v>771.3600410982378</v>
+        <v>425.0132175495778</v>
       </c>
       <c r="Y39" t="n">
-        <v>771.3600410982378</v>
+        <v>199.3725244849054</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83667155797033</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83667155797033</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83667155797033</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83667155797033</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633988</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633988</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633988</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633988</v>
+        <v>56.03657271633977</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330174</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330174</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797033</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676717</v>
+        <v>818.5041758676708</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1923754002155</v>
+        <v>708.1923754002146</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418014</v>
+        <v>610.4395019418005</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173175</v>
+        <v>478.6394038173166</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641696</v>
+        <v>314.7985606641687</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J41" t="n">
         <v>190.6703794211881</v>
@@ -7418,19 +7418,19 @@
         <v>469.4129593976049</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3278222156135</v>
+        <v>550.3332701207568</v>
       </c>
       <c r="N41" t="n">
-        <v>679.7150721488517</v>
+        <v>864.3073668232082</v>
       </c>
       <c r="O41" t="n">
-        <v>952.5786025514947</v>
+        <v>1137.170897225851</v>
       </c>
       <c r="P41" t="n">
         <v>1176.272233167332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1326.080383469425</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R41" t="n">
         <v>1371.755396567412</v>
@@ -7442,19 +7442,19 @@
         <v>1403.455079531117</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.208918225169</v>
+        <v>1394.208918225168</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.51905086077</v>
+        <v>1313.519050860769</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.640617621003</v>
+        <v>1215.640617621002</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.654860675236</v>
+        <v>1095.654860675235</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590213</v>
+        <v>952.9389490590204</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>712.2524122579683</v>
+        <v>188.8492178295906</v>
       </c>
       <c r="C42" t="n">
-        <v>522.840137990932</v>
+        <v>188.8492178295906</v>
       </c>
       <c r="D42" t="n">
-        <v>362.0600217519638</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4968178733783</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K42" t="n">
         <v>66.06116862292703</v>
@@ -7497,7 +7497,7 @@
         <v>183.4327335947453</v>
       </c>
       <c r="M42" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752435</v>
       </c>
       <c r="N42" t="n">
         <v>570.1057459690933</v>
@@ -7515,25 +7515,25 @@
         <v>778.5924711308899</v>
       </c>
       <c r="S42" t="n">
-        <v>778.5924711308899</v>
+        <v>585.0697924510192</v>
       </c>
       <c r="T42" t="n">
-        <v>778.5924711308899</v>
+        <v>367.9281773541472</v>
       </c>
       <c r="U42" t="n">
-        <v>778.5924711308899</v>
+        <v>367.9281773541472</v>
       </c>
       <c r="V42" t="n">
-        <v>778.5924711308899</v>
+        <v>367.9281773541472</v>
       </c>
       <c r="W42" t="n">
-        <v>752.6250280413803</v>
+        <v>341.9607342646378</v>
       </c>
       <c r="X42" t="n">
-        <v>752.6250280413803</v>
+        <v>341.9607342646378</v>
       </c>
       <c r="Y42" t="n">
-        <v>752.6250280413803</v>
+        <v>341.9607342646378</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06910159062235</v>
+        <v>46.95568750567547</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06910159062235</v>
+        <v>46.95568750567547</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06910159062235</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06910159062235</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06910159062235</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06910159062235</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06910159062235</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06910159062235</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06910159062235</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06910159062235</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="L43" t="n">
         <v>130.1759968085603</v>
@@ -7600,19 +7600,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697671</v>
+        <v>82.03485152697669</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449924</v>
+        <v>77.88111388449923</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062235</v>
+        <v>46.95568750567547</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062235</v>
+        <v>46.95568750567547</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676718</v>
+        <v>818.5041758676714</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002157</v>
+        <v>708.1923754002153</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418014</v>
+        <v>610.4395019418009</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173174</v>
+        <v>478.6394038173169</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641696</v>
+        <v>314.7985606641691</v>
       </c>
       <c r="G44" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J44" t="n">
         <v>190.6703794211881</v>
       </c>
       <c r="K44" t="n">
-        <v>238.0473264929544</v>
+        <v>422.6396211673109</v>
       </c>
       <c r="L44" t="n">
-        <v>284.8206647232485</v>
+        <v>707.9998061668182</v>
       </c>
       <c r="M44" t="n">
-        <v>365.7409754464003</v>
+        <v>1027.506963659183</v>
       </c>
       <c r="N44" t="n">
-        <v>679.7150721488517</v>
+        <v>1102.894213592421</v>
       </c>
       <c r="O44" t="n">
-        <v>952.5786025514947</v>
+        <v>1137.170897225851</v>
       </c>
       <c r="P44" t="n">
         <v>1176.272233167332</v>
       </c>
       <c r="Q44" t="n">
-        <v>1326.080383469425</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
         <v>1371.755396567412</v>
@@ -7691,7 +7691,7 @@
         <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590215</v>
+        <v>952.9389490590211</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K45" t="n">
         <v>66.06116862292703</v>
@@ -7734,7 +7734,7 @@
         <v>183.4327335947453</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752435</v>
       </c>
       <c r="N45" t="n">
         <v>570.1057459690933</v>
@@ -7746,31 +7746,31 @@
         <v>785.5081342426762</v>
       </c>
       <c r="Q45" t="n">
-        <v>780.1716896323841</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="R45" t="n">
-        <v>780.1716896323841</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="S45" t="n">
-        <v>780.1716896323841</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="T45" t="n">
-        <v>780.1716896323841</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="U45" t="n">
-        <v>540.547388956697</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="V45" t="n">
-        <v>297.467670860331</v>
+        <v>542.4284161463103</v>
       </c>
       <c r="W45" t="n">
-        <v>28.06910159062235</v>
+        <v>473.2177890385983</v>
       </c>
       <c r="X45" t="n">
-        <v>28.06910159062235</v>
+        <v>253.7097946552947</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06910159062235</v>
+        <v>54.78910102174639</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06910159062235</v>
+        <v>54.78910102174639</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062235</v>
+        <v>54.78910102174639</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062235</v>
+        <v>54.78910102174639</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06910159062235</v>
+        <v>54.78910102174639</v>
       </c>
       <c r="H46" t="n">
-        <v>54.78910102174642</v>
+        <v>54.78910102174639</v>
       </c>
       <c r="I46" t="n">
         <v>130.1759968085603</v>
@@ -7837,19 +7837,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U46" t="n">
-        <v>82.03485152697671</v>
+        <v>82.03485152697669</v>
       </c>
       <c r="V46" t="n">
-        <v>77.88111388449924</v>
+        <v>77.88111388449923</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062235</v>
+        <v>28.06910159062234</v>
       </c>
     </row>
   </sheetData>
@@ -8781,7 +8781,7 @@
         <v>292.1547529041439</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913208</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9018,7 +9018,7 @@
         <v>292.1547529041439</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913208</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841511</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1547529041441</v>
+        <v>292.154752904144</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841512</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041442</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.7575910532781</v>
+        <v>195.757591053278</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566235</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>155.1488030304663</v>
       </c>
       <c r="E11" t="n">
-        <v>193.149262737081</v>
+        <v>193.1492627370808</v>
       </c>
       <c r="F11" t="n">
-        <v>36.30722326487668</v>
+        <v>36.30722326487654</v>
       </c>
       <c r="G11" t="n">
-        <v>240.5081876210496</v>
+        <v>51.94581057046787</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384201</v>
+        <v>62.6671655938419</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550873</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065507</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>61.83435362430308</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845968</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.39354104331309</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>195.7575910532781</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566236</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>152.1054916516122</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E14" t="n">
-        <v>4.586885686499329</v>
+        <v>193.1492627370809</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154583</v>
+        <v>36.3072232648766</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046798</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718774</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550874</v>
+        <v>49.17968824550867</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V14" t="n">
         <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701509</v>
+        <v>58.0046795899345</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938947</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1198009.101560459</v>
+        <v>1198009.10156046</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>220482.998794115</v>
       </c>
       <c r="C2" t="n">
+        <v>220482.998794115</v>
+      </c>
+      <c r="D2" t="n">
         <v>220482.9987941149</v>
       </c>
-      <c r="D2" t="n">
-        <v>220482.998794115</v>
-      </c>
       <c r="E2" t="n">
-        <v>189997.5222551196</v>
+        <v>189997.5222551197</v>
       </c>
       <c r="F2" t="n">
-        <v>189997.5222551194</v>
+        <v>189997.5222551195</v>
       </c>
       <c r="G2" t="n">
         <v>220929.6372146339</v>
       </c>
       <c r="H2" t="n">
-        <v>220929.637214634</v>
+        <v>220929.6372146339</v>
       </c>
       <c r="I2" t="n">
-        <v>220929.637214634</v>
+        <v>220929.6372146339</v>
       </c>
       <c r="J2" t="n">
         <v>220929.6372146339</v>
       </c>
       <c r="K2" t="n">
-        <v>220929.637214634</v>
+        <v>220929.6372146339</v>
       </c>
       <c r="L2" t="n">
-        <v>220929.6372146339</v>
+        <v>220929.6372146338</v>
       </c>
       <c r="M2" t="n">
         <v>220929.6372146339</v>
       </c>
       <c r="N2" t="n">
+        <v>220929.637214634</v>
+      </c>
+      <c r="O2" t="n">
         <v>220929.6372146339</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>220929.6372146338</v>
-      </c>
-      <c r="P2" t="n">
-        <v>220929.6372146339</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842064</v>
+        <v>280312.8421842065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400478</v>
+        <v>95275.95397400473</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143645.0035243412</v>
+        <v>143645.0035243413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400478</v>
+        <v>95275.95397400469</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145961</v>
+        <v>46874.16014145965</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660015</v>
+        <v>72403.48181660024</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>435522.6386213152</v>
       </c>
       <c r="E4" t="n">
-        <v>325346.2938622803</v>
+        <v>325346.2938622804</v>
       </c>
       <c r="F4" t="n">
-        <v>325346.2938622803</v>
+        <v>325346.2938622804</v>
       </c>
       <c r="G4" t="n">
         <v>395809.2702669877</v>
@@ -26439,16 +26439,16 @@
         <v>395809.2702669877</v>
       </c>
       <c r="J4" t="n">
+        <v>396695.6540483333</v>
+      </c>
+      <c r="K4" t="n">
         <v>396695.6540483334</v>
-      </c>
-      <c r="K4" t="n">
-        <v>396695.6540483333</v>
       </c>
       <c r="L4" t="n">
         <v>396695.6540483334</v>
       </c>
       <c r="M4" t="n">
-        <v>395870.627070532</v>
+        <v>395870.6270705321</v>
       </c>
       <c r="N4" t="n">
         <v>395870.6270705321</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28663.94612301864</v>
+        <v>28663.94612301865</v>
       </c>
       <c r="F5" t="n">
-        <v>28663.94612301864</v>
+        <v>28663.94612301865</v>
       </c>
       <c r="G5" t="n">
         <v>38676.13884131941</v>
@@ -26491,10 +26491,10 @@
         <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.7764795149</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.77647951488</v>
+        <v>47453.77647951491</v>
       </c>
       <c r="L5" t="n">
         <v>47453.7764795149</v>
@@ -26506,10 +26506,10 @@
         <v>40915.013666005</v>
       </c>
       <c r="O5" t="n">
-        <v>43800.23675152497</v>
+        <v>43800.23675152496</v>
       </c>
       <c r="P5" t="n">
-        <v>43800.23675152497</v>
+        <v>43800.23675152496</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248667.2398272002</v>
+        <v>-248671.7062114054</v>
       </c>
       <c r="C6" t="n">
-        <v>-248667.2398272004</v>
+        <v>-248671.7062114055</v>
       </c>
       <c r="D6" t="n">
-        <v>-248667.2398272003</v>
+        <v>-248671.7062114055</v>
       </c>
       <c r="E6" t="n">
-        <v>-444325.5599143857</v>
+        <v>-444634.8810639809</v>
       </c>
       <c r="F6" t="n">
-        <v>-164012.7177301795</v>
+        <v>-164322.0388797747</v>
       </c>
       <c r="G6" t="n">
-        <v>-308831.725867678</v>
+        <v>-308831.7258676779</v>
       </c>
       <c r="H6" t="n">
         <v>-213555.7718936732</v>
@@ -26543,19 +26543,19 @@
         <v>-213555.7718936732</v>
       </c>
       <c r="J6" t="n">
-        <v>-366864.7968375555</v>
+        <v>-366864.7968375557</v>
       </c>
       <c r="K6" t="n">
-        <v>-223219.7933132142</v>
+        <v>-223219.7933132144</v>
       </c>
       <c r="L6" t="n">
-        <v>-318495.7472872192</v>
+        <v>-318495.7472872191</v>
       </c>
       <c r="M6" t="n">
-        <v>-262730.1636633627</v>
+        <v>-262730.1636633628</v>
       </c>
       <c r="N6" t="n">
-        <v>-215856.0035219032</v>
+        <v>-215856.0035219031</v>
       </c>
       <c r="O6" t="n">
         <v>-291531.9517967611</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
         <v>178.3296493245552</v>
@@ -26710,16 +26710,16 @@
         <v>213.4669766680327</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L2" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="O2" t="n">
         <v>240.9968149183972</v>
@@ -26811,25 +26811,25 @@
         <v>188.5623770505817</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252103</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252107</v>
+        <v>449.0207715252106</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746291</v>
+        <v>260.458394474629</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746291</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827794</v>
+        <v>350.8637698827793</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827794</v>
+        <v>350.8637698827793</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052674</v>
+        <v>94.37203420052688</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682451</v>
+        <v>58.59270017682456</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406673</v>
+        <v>63.30917227406684</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746288</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815029</v>
+        <v>90.40537540815023</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675059</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052674</v>
+        <v>94.37203420052688</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245552</v>
+        <v>76.7530999380278</v>
       </c>
       <c r="K11" t="n">
-        <v>6.684449518273155</v>
+        <v>6.684449518273148</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>153.3589480640216</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245552</v>
+        <v>31.18441217575875</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>58.9527289826411</v>
       </c>
       <c r="G12" t="n">
         <v>148.7444246896586</v>
@@ -28187,10 +28187,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y12" t="n">
-        <v>165.1150482863549</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="13">
@@ -28254,7 +28254,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28263,7 +28263,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I13" t="n">
         <v>164.8484353357569</v>
@@ -28272,49 +28272,49 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="L13" t="n">
-        <v>169.3243415993522</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M13" t="n">
-        <v>25.1932384637467</v>
+        <v>161.0115807924552</v>
       </c>
       <c r="N13" t="n">
-        <v>16.49709222984359</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="O13" t="n">
-        <v>178.3296493245552</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3296493245552</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="14">
@@ -28348,13 +28348,13 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245552</v>
+        <v>76.7530999380278</v>
       </c>
       <c r="K14" t="n">
-        <v>6.684449518273155</v>
+        <v>6.684449518273148</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,7 +28363,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.3589480640216</v>
+        <v>113.6189165921834</v>
       </c>
       <c r="P14" t="n">
         <v>178.3296493245552</v>
@@ -28427,7 +28427,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>14.72607833020922</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.025074842490265</v>
+        <v>93.15510039541009</v>
       </c>
       <c r="T15" t="n">
         <v>178.3296493245552</v>
@@ -28488,10 +28488,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.3296493245552</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.3296493245552</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>178.3296493245552</v>
@@ -28500,7 +28500,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I16" t="n">
         <v>164.8484353357569</v>
@@ -28512,22 +28512,22 @@
         <v>178.3296493245552</v>
       </c>
       <c r="L16" t="n">
+        <v>32.12940745055724</v>
+      </c>
+      <c r="M16" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="M16" t="n">
-        <v>25.1932384637467</v>
       </c>
       <c r="N16" t="n">
         <v>16.49709222984359</v>
       </c>
       <c r="O16" t="n">
-        <v>37.45757960830503</v>
+        <v>52.37811570116033</v>
       </c>
       <c r="P16" t="n">
-        <v>91.76715439518652</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245552</v>
@@ -28582,13 +28582,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>265.3154769886095</v>
+        <v>76.7530999380278</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273155</v>
+        <v>6.684449518273148</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,28 +28597,28 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>38.03082000680791</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017745</v>
+        <v>15.04365268017744</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.2750999189591</v>
+        <v>278.2378280274712</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4245917920612</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S17" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V17" t="n">
         <v>297.4245917920612</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28652,19 +28652,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R18" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
-        <v>3.025074842490255</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532166</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>221.5747356762623</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652642996</v>
       </c>
       <c r="X18" t="n">
-        <v>115.2425430700834</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28749,7 +28749,7 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M19" t="n">
         <v>25.1932384637467</v>
@@ -28758,7 +28758,7 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P19" t="n">
         <v>58.46036931460877</v>
@@ -28822,13 +28822,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
-        <v>265.3154769886095</v>
+        <v>76.7530999380278</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273155</v>
+        <v>195.2468265688548</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>27.18678460111082</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017745</v>
+        <v>15.04365268017744</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.2750999189591</v>
+        <v>278.2378280274712</v>
       </c>
       <c r="R20" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4245917920612</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28892,16 +28892,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.025074842490255</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T21" t="n">
-        <v>173.3408964263319</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280576689302</v>
+        <v>48.66568061834855</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28943,7 +28943,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>93.36828434399293</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28986,7 +28986,7 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M22" t="n">
         <v>25.1932384637467</v>
@@ -28995,7 +28995,7 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P22" t="n">
         <v>58.46036931460877</v>
@@ -29056,43 +29056,43 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>265.3154769886095</v>
+        <v>76.7530999380278</v>
       </c>
       <c r="K23" t="n">
-        <v>33.87123411938403</v>
+        <v>6.684449518273148</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>153.9394642895417</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017745</v>
+        <v>82.49315602050008</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2378280274714</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4245917920612</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S23" t="n">
         <v>227.5093375700639</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29120,25 +29120,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>64.96662291175403</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,16 +29159,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>116.2998165782755</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9701989459033</v>
+        <v>26.4078218953216</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280576689302</v>
@@ -29177,7 +29177,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.1422065264299</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29223,7 +29223,7 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M25" t="n">
         <v>25.1932384637467</v>
@@ -29232,7 +29232,7 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P25" t="n">
         <v>58.46036931460877</v>
@@ -29320,7 +29320,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680329</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="S26" t="n">
         <v>213.4669766680327</v>
@@ -29354,16 +29354,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>46.92393690768645</v>
+        <v>105.2878988678464</v>
       </c>
       <c r="G27" t="n">
         <v>148.7444246896586</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705464</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668484</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R27" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.4669766680327</v>
@@ -29420,7 +29420,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29454,22 +29454,22 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2289512774728</v>
+        <v>128.8002847473208</v>
       </c>
       <c r="K28" t="n">
+        <v>67.01246855587064</v>
+      </c>
+      <c r="L28" t="n">
+        <v>32.12940745055724</v>
+      </c>
+      <c r="M28" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="L28" t="n">
-        <v>118.3700270155941</v>
-      </c>
-      <c r="M28" t="n">
-        <v>25.1932384637467</v>
       </c>
       <c r="N28" t="n">
         <v>16.49709222984359</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P28" t="n">
         <v>58.46036931460877</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="30">
@@ -29591,13 +29591,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>106.2286280354095</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>127.1674236428072</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29612,7 +29612,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R30" t="n">
         <v>134.7086383504341</v>
@@ -29642,22 +29642,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X30" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="31">
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G31" t="n">
         <v>168.7006242014745</v>
@@ -29691,13 +29691,13 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J31" t="n">
-        <v>213.4669766680327</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L31" t="n">
-        <v>171.5865097371962</v>
+        <v>104.0218287536418</v>
       </c>
       <c r="M31" t="n">
         <v>25.1932384637467</v>
@@ -29706,37 +29706,37 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O31" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P31" t="n">
         <v>58.46036931460877</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.204364743505</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R31" t="n">
         <v>203.4231839810568</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="32">
@@ -29794,7 +29794,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="R32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680333</v>
       </c>
       <c r="S32" t="n">
         <v>213.4669766680327</v>
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7444246896586</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705464</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,13 +29870,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668484</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S33" t="n">
-        <v>50.99323727639239</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
         <v>213.4669766680327</v>
@@ -29885,16 +29885,16 @@
         <v>213.4669766680327</v>
       </c>
       <c r="V33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>213.4669766680327</v>
+        <v>186.7338837487778</v>
       </c>
     </row>
     <row r="34">
@@ -29934,22 +29934,22 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M34" t="n">
-        <v>25.1932384637467</v>
+        <v>102.8817587875217</v>
       </c>
       <c r="N34" t="n">
         <v>16.49709222984359</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P34" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.89288506728</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
         <v>203.4231839810568</v>
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0596768448572</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1428439929023</v>
+        <v>267.1428439929022</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017745</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0596768448572</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0596768448572</v>
+        <v>207.1748135431311</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T35" t="n">
-        <v>223.057645787308</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505146112862</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
     </row>
     <row r="36">
@@ -30065,13 +30065,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>38.29659060063446</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>90.27711115409666</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9701989459033</v>
@@ -30128,7 +30128,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30165,13 +30165,13 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J37" t="n">
-        <v>155.7844069929976</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M37" t="n">
         <v>25.1932384637467</v>
@@ -30180,10 +30180,10 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460877</v>
+        <v>94.01582503013346</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
@@ -30198,13 +30198,13 @@
         <v>223.7609144406078</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="K38" t="n">
-        <v>6.684449518273155</v>
+        <v>267.1428439929022</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,40 +30256,40 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O38" t="n">
-        <v>189.5472011835088</v>
+        <v>43.21814327653023</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017745</v>
+        <v>15.04365268017744</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0596768448572</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0596768448572</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0596768448572</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0596768448572</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
     </row>
     <row r="39">
@@ -30302,16 +30302,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>111.0738361134735</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
@@ -30323,7 +30323,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705464</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
@@ -30353,13 +30353,13 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>105.8892580674636</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -30368,7 +30368,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30408,22 +30408,22 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M40" t="n">
-        <v>25.1932384637467</v>
+        <v>60.74869417927138</v>
       </c>
       <c r="N40" t="n">
         <v>16.49709222984359</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P40" t="n">
         <v>58.46036931460877</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.7598204590298</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R40" t="n">
         <v>203.4231839810568</v>
@@ -30435,13 +30435,13 @@
         <v>223.7609144406078</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0596768448572</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30490,16 +30490,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>54.53995161096647</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="O41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="P41" t="n">
-        <v>240.9968149183972</v>
+        <v>54.53995161096589</v>
       </c>
       <c r="Q41" t="n">
         <v>240.9968149183972</v>
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136.7816047720878</v>
+        <v>25.17009312696905</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
@@ -30560,7 +30560,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705464</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30587,10 +30587,10 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280576689302</v>
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>229.2435687384732</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30645,7 +30645,7 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L43" t="n">
-        <v>135.2676854484744</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M43" t="n">
         <v>25.1932384637467</v>
@@ -30654,7 +30654,7 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P43" t="n">
         <v>58.46036931460877</v>
@@ -30681,7 +30681,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30721,22 +30721,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
-        <v>54.53995161096644</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="N44" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9968149183972</v>
+        <v>54.53995161096589</v>
       </c>
       <c r="Q44" t="n">
         <v>240.9968149183972</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705464</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.563426316479287</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504341</v>
@@ -30830,19 +30830,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>198.1860627403768</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>193.4470793872492</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -30870,7 +30870,7 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8129559816424</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I46" t="n">
         <v>240.9968149183972</v>
@@ -30882,7 +30882,7 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M46" t="n">
         <v>25.1932384637467</v>
@@ -30891,7 +30891,7 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P46" t="n">
         <v>58.46036931460877</v>
@@ -31753,31 +31753,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I11" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L11" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N11" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q11" t="n">
         <v>43.9573767223205</v>
@@ -31786,10 +31786,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U11" t="n">
         <v>0.03256441192055318</v>
@@ -31835,43 +31835,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P12" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R12" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,16 +31914,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J13" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K13" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L13" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M13" t="n">
         <v>28.62195768301067</v>
@@ -31935,7 +31935,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q13" t="n">
         <v>15.28950021563599</v>
@@ -31947,10 +31947,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,31 +31990,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I14" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L14" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N14" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q14" t="n">
         <v>43.9573767223205</v>
@@ -32023,10 +32023,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U14" t="n">
         <v>0.03256441192055318</v>
@@ -32072,43 +32072,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P15" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R15" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,16 +32151,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J16" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K16" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L16" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M16" t="n">
         <v>28.62195768301067</v>
@@ -32172,7 +32172,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q16" t="n">
         <v>15.28950021563599</v>
@@ -32184,10 +32184,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,31 +32227,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I17" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L17" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N17" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q17" t="n">
         <v>43.9573767223205</v>
@@ -32260,10 +32260,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U17" t="n">
         <v>0.03256441192055318</v>
@@ -32309,43 +32309,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J18" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P18" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R18" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,16 +32388,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J19" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K19" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L19" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M19" t="n">
         <v>28.62195768301067</v>
@@ -32409,7 +32409,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q19" t="n">
         <v>15.28950021563599</v>
@@ -32421,10 +32421,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,31 +32464,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I20" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L20" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N20" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q20" t="n">
         <v>43.9573767223205</v>
@@ -32497,10 +32497,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T20" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U20" t="n">
         <v>0.03256441192055318</v>
@@ -32546,43 +32546,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P21" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R21" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,16 +32625,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J22" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K22" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L22" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M22" t="n">
         <v>28.62195768301067</v>
@@ -32646,7 +32646,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q22" t="n">
         <v>15.28950021563599</v>
@@ -32658,10 +32658,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,31 +32701,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I23" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L23" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N23" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q23" t="n">
         <v>43.9573767223205</v>
@@ -32734,10 +32734,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U23" t="n">
         <v>0.03256441192055318</v>
@@ -32783,43 +32783,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P24" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R24" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,16 +32862,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J25" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K25" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L25" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M25" t="n">
         <v>28.62195768301067</v>
@@ -32883,7 +32883,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q25" t="n">
         <v>15.28950021563599</v>
@@ -32895,10 +32895,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,31 +32938,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I26" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L26" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N26" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q26" t="n">
         <v>43.9573767223205</v>
@@ -32971,10 +32971,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U26" t="n">
         <v>0.03256441192055318</v>
@@ -33020,43 +33020,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P27" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R27" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,16 +33099,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J28" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K28" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L28" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M28" t="n">
         <v>28.62195768301067</v>
@@ -33120,7 +33120,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q28" t="n">
         <v>15.28950021563599</v>
@@ -33132,10 +33132,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,31 +33175,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I29" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L29" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N29" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q29" t="n">
         <v>43.9573767223205</v>
@@ -33208,10 +33208,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U29" t="n">
         <v>0.03256441192055318</v>
@@ -33257,43 +33257,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P30" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R30" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,16 +33336,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J31" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K31" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L31" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M31" t="n">
         <v>28.62195768301067</v>
@@ -33357,7 +33357,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q31" t="n">
         <v>15.28950021563599</v>
@@ -33369,10 +33369,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,31 +33412,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I32" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L32" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N32" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q32" t="n">
         <v>43.9573767223205</v>
@@ -33445,10 +33445,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U32" t="n">
         <v>0.03256441192055318</v>
@@ -33494,43 +33494,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P33" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R33" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,16 +33573,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K34" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L34" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M34" t="n">
         <v>28.62195768301067</v>
@@ -33594,7 +33594,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q34" t="n">
         <v>15.28950021563599</v>
@@ -33606,10 +33606,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,31 +33649,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I35" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L35" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N35" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q35" t="n">
         <v>43.9573767223205</v>
@@ -33682,10 +33682,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T35" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U35" t="n">
         <v>0.03256441192055318</v>
@@ -33731,43 +33731,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P36" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R36" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,16 +33810,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J37" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K37" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L37" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M37" t="n">
         <v>28.62195768301067</v>
@@ -33831,7 +33831,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q37" t="n">
         <v>15.28950021563599</v>
@@ -33843,10 +33843,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,31 +33886,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I38" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L38" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N38" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q38" t="n">
         <v>43.9573767223205</v>
@@ -33919,10 +33919,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U38" t="n">
         <v>0.03256441192055318</v>
@@ -33968,43 +33968,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P39" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R39" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,16 +34047,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J40" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K40" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L40" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M40" t="n">
         <v>28.62195768301067</v>
@@ -34068,7 +34068,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q40" t="n">
         <v>15.28950021563599</v>
@@ -34080,10 +34080,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,31 +34123,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I41" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L41" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N41" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q41" t="n">
         <v>43.9573767223205</v>
@@ -34156,10 +34156,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T41" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U41" t="n">
         <v>0.03256441192055318</v>
@@ -34205,43 +34205,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P42" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R42" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,16 +34284,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K43" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L43" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M43" t="n">
         <v>28.62195768301067</v>
@@ -34305,7 +34305,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q43" t="n">
         <v>15.28950021563599</v>
@@ -34317,10 +34317,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,31 +34360,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I44" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L44" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N44" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q44" t="n">
         <v>43.9573767223205</v>
@@ -34393,10 +34393,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T44" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U44" t="n">
         <v>0.03256441192055318</v>
@@ -34442,43 +34442,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997499</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P45" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R45" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,16 +34521,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K46" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L46" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M46" t="n">
         <v>28.62195768301067</v>
@@ -34542,7 +34542,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q46" t="n">
         <v>15.28950021563599</v>
@@ -34554,10 +34554,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865274</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221619</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914323</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N11" t="n">
         <v>76.14873730630119</v>
       </c>
       <c r="O11" t="n">
-        <v>187.9818608250616</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443777</v>
+        <v>16.1407594955813</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766556</v>
+        <v>88.65419834766567</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578657</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545049</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.65350811233031</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.50659175818969</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.3171807686846</v>
+        <v>111.3171807686847</v>
       </c>
       <c r="L13" t="n">
-        <v>137.1949341487949</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>135.8183423287085</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.8325570947117</v>
       </c>
       <c r="O13" t="n">
-        <v>140.8720697162502</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8692800099464</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>51.12528458105032</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865274</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221619</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N14" t="n">
         <v>76.14873730630119</v>
       </c>
       <c r="O14" t="n">
-        <v>187.9818608250616</v>
+        <v>148.2418293532235</v>
       </c>
       <c r="P14" t="n">
-        <v>163.2859966443777</v>
+        <v>163.2859966443778</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766556</v>
+        <v>88.65419834766561</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>188.5623770505816</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578657</v>
       </c>
       <c r="P15" t="n">
         <v>84.50414241545053</v>
@@ -35784,46 +35784,46 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.14699907384448</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.6535081123302</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.40276710610854</v>
+        <v>39.4027671061086</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708242</v>
+        <v>58.10069804708249</v>
       </c>
       <c r="K16" t="n">
         <v>111.3171807686846</v>
       </c>
       <c r="L16" t="n">
-        <v>146.200241873998</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>153.1364108608086</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>14.92053609285531</v>
       </c>
       <c r="P16" t="n">
-        <v>33.30678508057775</v>
+        <v>119.8692800099465</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.1252845810502</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.42777687366396</v>
       </c>
       <c r="J17" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,31 +35890,31 @@
         <v>47.24579619221619</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N17" t="n">
-        <v>76.14873730630119</v>
+        <v>114.1795573131091</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276104003</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.59964894206945</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5641537403182</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>69.91525422199724</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685088</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.27407718077492</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515641</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -36118,40 +36118,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>47.24579619221619</v>
+        <v>74.43258079332701</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N20" t="n">
         <v>76.14873730630119</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276104003</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.59964894206945</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="R20" t="n">
         <v>102.5641537403182</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199724</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685088</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077492</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
-        <v>188.5623770505818</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="O21" t="n">
         <v>133.0740275578656</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.42777687366396</v>
       </c>
       <c r="J23" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>27.18678460111088</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>47.24579619221619</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914323</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="N23" t="n">
         <v>76.14873730630119</v>
       </c>
       <c r="O23" t="n">
-        <v>34.62291276104003</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>67.44950334032264</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5641537403182</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515647</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
@@ -36446,7 +36446,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505819</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578656</v>
@@ -36601,13 +36601,13 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M26" t="n">
-        <v>295.2046642671759</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N26" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P26" t="n">
         <v>198.4233239878553</v>
@@ -36616,7 +36616,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628997</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.85005600306465</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>8.571333469848055</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4545081121621</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>86.24061956503685</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.273738204286</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K29" t="n">
         <v>206.7825271497596</v>
@@ -36838,13 +36838,13 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.2046642671759</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N29" t="n">
-        <v>289.6157139743339</v>
+        <v>289.615713974334</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P29" t="n">
         <v>198.4233239878553</v>
@@ -36853,7 +36853,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628978</v>
+        <v>18.60653861628985</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.54009444958612</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.23802539055995</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>139.457102286639</v>
+        <v>71.89242130308459</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.26261192452779</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671759</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N32" t="n">
         <v>289.6157139743339</v>
@@ -37090,7 +37090,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628979</v>
+        <v>18.60653861629043</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>77.68852032377497</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37242,10 +37242,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.0066073534239</v>
+        <v>155.006607353424</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.68852032377498</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646002</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.3065769068294</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4583944746291</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L35" t="n">
         <v>47.24579619221619</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N35" t="n">
         <v>76.14873730630119</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276104003</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3842258679676</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.1992387931143</v>
+        <v>12.31437549138815</v>
       </c>
       <c r="S35" t="n">
-        <v>44.5503392747933</v>
+        <v>44.55033927479336</v>
       </c>
       <c r="T35" t="n">
-        <v>0.5932353020977065</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.55545571552481</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646002</v>
+        <v>31.06286192646007</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068294</v>
+        <v>195.3065769068295</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L38" t="n">
         <v>47.24579619221619</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630119</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O38" t="n">
-        <v>224.1701139445488</v>
+        <v>77.84105603757027</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679676</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.1992387931143</v>
+        <v>77.19923879311436</v>
       </c>
       <c r="S38" t="n">
-        <v>44.5503392747933</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964695</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357097</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.55545571552481</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>47.24579619221619</v>
       </c>
       <c r="M41" t="n">
-        <v>136.2776392101097</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N41" t="n">
-        <v>76.14873730630119</v>
+        <v>317.1455522246984</v>
       </c>
       <c r="O41" t="n">
         <v>275.6197276794372</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382198</v>
+        <v>39.49629893078844</v>
       </c>
       <c r="Q41" t="n">
         <v>151.3213639415076</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>84.06091848776246</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>103.1382779979172</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>19.07735951015468</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>47.85550209269329</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
-        <v>47.24579619221619</v>
+        <v>288.2426111106134</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914323</v>
+        <v>322.7345025175405</v>
       </c>
       <c r="N44" t="n">
-        <v>317.1455522246984</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O44" t="n">
-        <v>275.6197276794372</v>
+        <v>34.62291276104004</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382198</v>
+        <v>39.49629893078844</v>
       </c>
       <c r="Q44" t="n">
         <v>151.3213639415076</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>26.98989841527682</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>26.98989841527684</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>76.14837958264033</v>
